--- a/04_Model_Saved/NN_full_v3_BO_test_1/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_1/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>398.8832092285156</v>
+        <v>372.0505065917969</v>
       </c>
       <c r="H2" t="n">
-        <v>95.51756286621094</v>
+        <v>84.50623321533203</v>
       </c>
       <c r="I2" t="n">
-        <v>472.9060363769531</v>
+        <v>686.6262817382812</v>
       </c>
       <c r="J2" t="n">
-        <v>311.0828552246094</v>
+        <v>144.6291351318359</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>451.086669921875</v>
+        <v>458.3168334960938</v>
       </c>
       <c r="H3" t="n">
-        <v>101.0918579101562</v>
+        <v>111.6665115356445</v>
       </c>
       <c r="I3" t="n">
-        <v>519.1831665039062</v>
+        <v>764.5018920898438</v>
       </c>
       <c r="J3" t="n">
-        <v>290.8068237304688</v>
+        <v>150.6148986816406</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>505.0772399902344</v>
+        <v>524.6074829101562</v>
       </c>
       <c r="H4" t="n">
-        <v>100.4221725463867</v>
+        <v>112.2994155883789</v>
       </c>
       <c r="I4" t="n">
-        <v>538.6193237304688</v>
+        <v>802.6625366210938</v>
       </c>
       <c r="J4" t="n">
-        <v>293.1764221191406</v>
+        <v>154.1757049560547</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>564.9647216796875</v>
+        <v>568.41162109375</v>
       </c>
       <c r="H5" t="n">
-        <v>100.3741073608398</v>
+        <v>112.1569213867188</v>
       </c>
       <c r="I5" t="n">
-        <v>557.8262329101562</v>
+        <v>807.8167114257812</v>
       </c>
       <c r="J5" t="n">
-        <v>303.123779296875</v>
+        <v>151.0797271728516</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>626.3993530273438</v>
+        <v>624.4096069335938</v>
       </c>
       <c r="H6" t="n">
-        <v>92.36602783203125</v>
+        <v>92.23221588134766</v>
       </c>
       <c r="I6" t="n">
-        <v>579.2757568359375</v>
+        <v>807.6029663085938</v>
       </c>
       <c r="J6" t="n">
-        <v>301.69287109375</v>
+        <v>145.3668975830078</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>320.3751831054688</v>
+        <v>289.7923889160156</v>
       </c>
       <c r="H7" t="n">
-        <v>82.07147216796875</v>
+        <v>46.02919387817383</v>
       </c>
       <c r="I7" t="n">
-        <v>382.9270324707031</v>
+        <v>608.9913940429688</v>
       </c>
       <c r="J7" t="n">
-        <v>337.50341796875</v>
+        <v>113.2748718261719</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>349.5491027832031</v>
+        <v>292.9322509765625</v>
       </c>
       <c r="H8" t="n">
-        <v>87.908935546875</v>
+        <v>54.71164321899414</v>
       </c>
       <c r="I8" t="n">
-        <v>408.0397338867188</v>
+        <v>671.5325317382812</v>
       </c>
       <c r="J8" t="n">
-        <v>313.15576171875</v>
+        <v>119.6930618286133</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>403.6084594726562</v>
+        <v>355.3677673339844</v>
       </c>
       <c r="H9" t="n">
-        <v>87.39459228515625</v>
+        <v>81.09097290039062</v>
       </c>
       <c r="I9" t="n">
-        <v>466.5014038085938</v>
+        <v>762.76953125</v>
       </c>
       <c r="J9" t="n">
-        <v>288.1946411132812</v>
+        <v>120.6636962890625</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>461.2671813964844</v>
+        <v>431.60009765625</v>
       </c>
       <c r="H10" t="n">
-        <v>94.36429595947266</v>
+        <v>102.4798355102539</v>
       </c>
       <c r="I10" t="n">
-        <v>491.3601989746094</v>
+        <v>810.1446533203125</v>
       </c>
       <c r="J10" t="n">
-        <v>279.5534973144531</v>
+        <v>119.4753952026367</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>539.1936645507812</v>
+        <v>514.0035400390625</v>
       </c>
       <c r="H11" t="n">
-        <v>98.39646148681641</v>
+        <v>108.1442260742188</v>
       </c>
       <c r="I11" t="n">
-        <v>533.54248046875</v>
+        <v>841.8558959960938</v>
       </c>
       <c r="J11" t="n">
-        <v>287.1499633789062</v>
+        <v>111.2467727661133</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>606.0452880859375</v>
+        <v>594.3661499023438</v>
       </c>
       <c r="H12" t="n">
-        <v>96.02043914794922</v>
+        <v>100.2666397094727</v>
       </c>
       <c r="I12" t="n">
-        <v>555.7249755859375</v>
+        <v>845.733154296875</v>
       </c>
       <c r="J12" t="n">
-        <v>296.4957885742188</v>
+        <v>114.1407699584961</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>672.665771484375</v>
+        <v>669.5527954101562</v>
       </c>
       <c r="H13" t="n">
-        <v>89.61704254150391</v>
+        <v>75.29584503173828</v>
       </c>
       <c r="I13" t="n">
-        <v>593.1480102539062</v>
+        <v>852.4502563476562</v>
       </c>
       <c r="J13" t="n">
-        <v>307.969970703125</v>
+        <v>113.993034362793</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>272.4426879882812</v>
+        <v>297.1855773925781</v>
       </c>
       <c r="H14" t="n">
-        <v>79.70441436767578</v>
+        <v>46.13908386230469</v>
       </c>
       <c r="I14" t="n">
-        <v>271.9572143554688</v>
+        <v>469.9833984375</v>
       </c>
       <c r="J14" t="n">
-        <v>368.0036010742188</v>
+        <v>93.55687713623047</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>295.1450500488281</v>
+        <v>283.684814453125</v>
       </c>
       <c r="H15" t="n">
-        <v>79.73587799072266</v>
+        <v>41.75360870361328</v>
       </c>
       <c r="I15" t="n">
-        <v>311.5997009277344</v>
+        <v>557.4525146484375</v>
       </c>
       <c r="J15" t="n">
-        <v>341.3040161132812</v>
+        <v>101.1792831420898</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>345.6520385742188</v>
+        <v>285.6602478027344</v>
       </c>
       <c r="H16" t="n">
-        <v>81.05429840087891</v>
+        <v>46.18544387817383</v>
       </c>
       <c r="I16" t="n">
-        <v>396.1431884765625</v>
+        <v>708.5506591796875</v>
       </c>
       <c r="J16" t="n">
-        <v>308.727294921875</v>
+        <v>123.0022964477539</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>356.5777893066406</v>
+        <v>282.0791015625</v>
       </c>
       <c r="H17" t="n">
-        <v>81.00448608398438</v>
+        <v>46.95650482177734</v>
       </c>
       <c r="I17" t="n">
-        <v>417.7902221679688</v>
+        <v>717.5040893554688</v>
       </c>
       <c r="J17" t="n">
-        <v>313.0982666015625</v>
+        <v>124.1550979614258</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>409.3014221191406</v>
+        <v>330.0260314941406</v>
       </c>
       <c r="H18" t="n">
-        <v>85.14073944091797</v>
+        <v>61.70012283325195</v>
       </c>
       <c r="I18" t="n">
-        <v>469.7117614746094</v>
+        <v>787.9488525390625</v>
       </c>
       <c r="J18" t="n">
-        <v>276.0082702636719</v>
+        <v>114.4727325439453</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>502.1300964355469</v>
+        <v>438.1603698730469</v>
       </c>
       <c r="H19" t="n">
-        <v>93.54983520507812</v>
+        <v>89.77419281005859</v>
       </c>
       <c r="I19" t="n">
-        <v>465.4670715332031</v>
+        <v>837.0713500976562</v>
       </c>
       <c r="J19" t="n">
-        <v>278.3601379394531</v>
+        <v>103.6898651123047</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>589.1389770507812</v>
+        <v>546.7089233398438</v>
       </c>
       <c r="H20" t="n">
-        <v>94.25514221191406</v>
+        <v>96.52639770507812</v>
       </c>
       <c r="I20" t="n">
-        <v>508.4067687988281</v>
+        <v>850.1240844726562</v>
       </c>
       <c r="J20" t="n">
-        <v>285.0340881347656</v>
+        <v>98.77002716064453</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>667.242919921875</v>
+        <v>653.9822998046875</v>
       </c>
       <c r="H21" t="n">
-        <v>92.15328216552734</v>
+        <v>74.24929809570312</v>
       </c>
       <c r="I21" t="n">
-        <v>547.528564453125</v>
+        <v>864.1328125</v>
       </c>
       <c r="J21" t="n">
-        <v>318.8685913085938</v>
+        <v>104.3350524902344</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>709.7505493164062</v>
+        <v>711.88037109375</v>
       </c>
       <c r="H22" t="n">
-        <v>94.93126678466797</v>
+        <v>56.38149261474609</v>
       </c>
       <c r="I22" t="n">
-        <v>626.0884399414062</v>
+        <v>862.3510131835938</v>
       </c>
       <c r="J22" t="n">
-        <v>342.2275085449219</v>
+        <v>117.6120071411133</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>255.5449676513672</v>
+        <v>302.1733703613281</v>
       </c>
       <c r="H23" t="n">
-        <v>77.20200347900391</v>
+        <v>45.12055206298828</v>
       </c>
       <c r="I23" t="n">
-        <v>212.9756317138672</v>
+        <v>384.5964050292969</v>
       </c>
       <c r="J23" t="n">
-        <v>392.3072509765625</v>
+        <v>124.8016510009766</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>272.1565856933594</v>
+        <v>303.7595520019531</v>
       </c>
       <c r="H24" t="n">
-        <v>78.20852661132812</v>
+        <v>41.34814071655273</v>
       </c>
       <c r="I24" t="n">
-        <v>245.6721343994141</v>
+        <v>480.2479248046875</v>
       </c>
       <c r="J24" t="n">
-        <v>360.9747314453125</v>
+        <v>114.2264633178711</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>296.444580078125</v>
+        <v>282.0699768066406</v>
       </c>
       <c r="H25" t="n">
-        <v>73.97222137451172</v>
+        <v>38.58568954467773</v>
       </c>
       <c r="I25" t="n">
-        <v>328.8445434570312</v>
+        <v>583.0271606445312</v>
       </c>
       <c r="J25" t="n">
-        <v>338.3658142089844</v>
+        <v>112.7452239990234</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>319.4490051269531</v>
+        <v>269.7120971679688</v>
       </c>
       <c r="H26" t="n">
-        <v>74.05975341796875</v>
+        <v>37.55313110351562</v>
       </c>
       <c r="I26" t="n">
-        <v>365.5072631835938</v>
+        <v>656.3460083007812</v>
       </c>
       <c r="J26" t="n">
-        <v>311.7446594238281</v>
+        <v>134.22900390625</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>365.5109558105469</v>
+        <v>286.3382873535156</v>
       </c>
       <c r="H27" t="n">
-        <v>78.96767425537109</v>
+        <v>44.12655258178711</v>
       </c>
       <c r="I27" t="n">
-        <v>408.1275939941406</v>
+        <v>751.4697265625</v>
       </c>
       <c r="J27" t="n">
-        <v>296.0211791992188</v>
+        <v>142.2090911865234</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>460.1575927734375</v>
+        <v>357.3862609863281</v>
       </c>
       <c r="H28" t="n">
-        <v>87.9422607421875</v>
+        <v>69.22629547119141</v>
       </c>
       <c r="I28" t="n">
-        <v>433.4944152832031</v>
+        <v>819.4053344726562</v>
       </c>
       <c r="J28" t="n">
-        <v>289.3038940429688</v>
+        <v>121.6062393188477</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>554.791015625</v>
+        <v>484.2649536132812</v>
       </c>
       <c r="H29" t="n">
-        <v>96.68266296386719</v>
+        <v>79.88275909423828</v>
       </c>
       <c r="I29" t="n">
-        <v>479.1740112304688</v>
+        <v>845.2166137695312</v>
       </c>
       <c r="J29" t="n">
-        <v>287.4249877929688</v>
+        <v>109.766242980957</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>657.9668579101562</v>
+        <v>631.8961791992188</v>
       </c>
       <c r="H30" t="n">
-        <v>89.55725860595703</v>
+        <v>69.17945098876953</v>
       </c>
       <c r="I30" t="n">
-        <v>545.2393798828125</v>
+        <v>859.0203247070312</v>
       </c>
       <c r="J30" t="n">
-        <v>321.2352600097656</v>
+        <v>106.473274230957</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>700.1480102539062</v>
+        <v>697.6765747070312</v>
       </c>
       <c r="H31" t="n">
-        <v>92.46498870849609</v>
+        <v>55.02117538452148</v>
       </c>
       <c r="I31" t="n">
-        <v>604.0580444335938</v>
+        <v>863.4293823242188</v>
       </c>
       <c r="J31" t="n">
-        <v>346.3162231445312</v>
+        <v>119.1879577636719</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>248.2542724609375</v>
+        <v>308.8333435058594</v>
       </c>
       <c r="H32" t="n">
-        <v>79.39138793945312</v>
+        <v>57.44134521484375</v>
       </c>
       <c r="I32" t="n">
-        <v>204.5200347900391</v>
+        <v>293.7796325683594</v>
       </c>
       <c r="J32" t="n">
-        <v>412.4202270507812</v>
+        <v>162.6506958007812</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>264.4007568359375</v>
+        <v>310.9821472167969</v>
       </c>
       <c r="H33" t="n">
-        <v>78.23072814941406</v>
+        <v>52.91146087646484</v>
       </c>
       <c r="I33" t="n">
-        <v>253.4751892089844</v>
+        <v>406.6751403808594</v>
       </c>
       <c r="J33" t="n">
-        <v>382.8873291015625</v>
+        <v>165.7509307861328</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>286.6151428222656</v>
+        <v>304.1545715332031</v>
       </c>
       <c r="H34" t="n">
-        <v>75.11421966552734</v>
+        <v>45.86299896240234</v>
       </c>
       <c r="I34" t="n">
-        <v>301.2488708496094</v>
+        <v>527.5512084960938</v>
       </c>
       <c r="J34" t="n">
-        <v>340.0614318847656</v>
+        <v>140.104736328125</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>309.3721008300781</v>
+        <v>301.1849670410156</v>
       </c>
       <c r="H35" t="n">
-        <v>73.57449340820312</v>
+        <v>44.92481231689453</v>
       </c>
       <c r="I35" t="n">
-        <v>338.2936096191406</v>
+        <v>630.9873046875</v>
       </c>
       <c r="J35" t="n">
-        <v>315.6563720703125</v>
+        <v>153.3179321289062</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>358.1520385742188</v>
+        <v>304.0437316894531</v>
       </c>
       <c r="H36" t="n">
-        <v>77.70669555664062</v>
+        <v>44.71953582763672</v>
       </c>
       <c r="I36" t="n">
-        <v>383.8717041015625</v>
+        <v>724.650146484375</v>
       </c>
       <c r="J36" t="n">
-        <v>298.503173828125</v>
+        <v>155.8798980712891</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>422.5121765136719</v>
+        <v>355.0439147949219</v>
       </c>
       <c r="H37" t="n">
-        <v>86.03744506835938</v>
+        <v>57.29127502441406</v>
       </c>
       <c r="I37" t="n">
-        <v>439.6127014160156</v>
+        <v>794.4746704101562</v>
       </c>
       <c r="J37" t="n">
-        <v>289.5432739257812</v>
+        <v>146.8387451171875</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>535.76171875</v>
+        <v>470.5246276855469</v>
       </c>
       <c r="H38" t="n">
-        <v>96.30260467529297</v>
+        <v>72.55487060546875</v>
       </c>
       <c r="I38" t="n">
-        <v>460.3994140625</v>
+        <v>846.4722900390625</v>
       </c>
       <c r="J38" t="n">
-        <v>271.8173522949219</v>
+        <v>119.1619415283203</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>626.8804931640625</v>
+        <v>614.3091430664062</v>
       </c>
       <c r="H39" t="n">
-        <v>92.36328125</v>
+        <v>64.99971008300781</v>
       </c>
       <c r="I39" t="n">
-        <v>508.4306640625</v>
+        <v>870.8541870117188</v>
       </c>
       <c r="J39" t="n">
-        <v>314.1492919921875</v>
+        <v>118.9737167358398</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>697.7298583984375</v>
+        <v>683.7410278320312</v>
       </c>
       <c r="H40" t="n">
-        <v>91.42933654785156</v>
+        <v>50.34933471679688</v>
       </c>
       <c r="I40" t="n">
-        <v>561.45947265625</v>
+        <v>880.4163818359375</v>
       </c>
       <c r="J40" t="n">
-        <v>359.2931823730469</v>
+        <v>128.6411285400391</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>247.7879486083984</v>
+        <v>314.649169921875</v>
       </c>
       <c r="H41" t="n">
-        <v>79.99122619628906</v>
+        <v>63.72856521606445</v>
       </c>
       <c r="I41" t="n">
-        <v>202.7387542724609</v>
+        <v>244.5737762451172</v>
       </c>
       <c r="J41" t="n">
-        <v>404.4983520507812</v>
+        <v>194.5211181640625</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>261.4796752929688</v>
+        <v>328.9491577148438</v>
       </c>
       <c r="H42" t="n">
-        <v>77.85120391845703</v>
+        <v>61.75793075561523</v>
       </c>
       <c r="I42" t="n">
-        <v>215.44970703125</v>
+        <v>329.5130310058594</v>
       </c>
       <c r="J42" t="n">
-        <v>388.6126708984375</v>
+        <v>205.545654296875</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>280.4686584472656</v>
+        <v>336.8986206054688</v>
       </c>
       <c r="H43" t="n">
-        <v>78.00328063964844</v>
+        <v>59.5814323425293</v>
       </c>
       <c r="I43" t="n">
-        <v>255.5187530517578</v>
+        <v>410.3179016113281</v>
       </c>
       <c r="J43" t="n">
-        <v>343.0459594726562</v>
+        <v>198.1817169189453</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>304.5918273925781</v>
+        <v>338.9272155761719</v>
       </c>
       <c r="H44" t="n">
-        <v>74.89330291748047</v>
+        <v>67.23154449462891</v>
       </c>
       <c r="I44" t="n">
-        <v>311.6753234863281</v>
+        <v>575.7806396484375</v>
       </c>
       <c r="J44" t="n">
-        <v>321.3449401855469</v>
+        <v>179.2324981689453</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>330.5632934570312</v>
+        <v>350.4311828613281</v>
       </c>
       <c r="H45" t="n">
-        <v>79.38969421386719</v>
+        <v>64.23813629150391</v>
       </c>
       <c r="I45" t="n">
-        <v>336.4416809082031</v>
+        <v>653.8248901367188</v>
       </c>
       <c r="J45" t="n">
-        <v>304.3600769042969</v>
+        <v>175.6207275390625</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>387.8129577636719</v>
+        <v>392.2367553710938</v>
       </c>
       <c r="H46" t="n">
-        <v>82.24332427978516</v>
+        <v>61.45152282714844</v>
       </c>
       <c r="I46" t="n">
-        <v>387.0043029785156</v>
+        <v>760.126220703125</v>
       </c>
       <c r="J46" t="n">
-        <v>281.2298583984375</v>
+        <v>162.0706939697266</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>489.7510375976562</v>
+        <v>492.9323425292969</v>
       </c>
       <c r="H47" t="n">
-        <v>90.63667297363281</v>
+        <v>72.65597534179688</v>
       </c>
       <c r="I47" t="n">
-        <v>437.82958984375</v>
+        <v>833.239990234375</v>
       </c>
       <c r="J47" t="n">
-        <v>285.0722961425781</v>
+        <v>148.8849334716797</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>615.854248046875</v>
+        <v>606.3031616210938</v>
       </c>
       <c r="H48" t="n">
-        <v>94.66938781738281</v>
+        <v>62.88241577148438</v>
       </c>
       <c r="I48" t="n">
-        <v>468.3479309082031</v>
+        <v>879.4634399414062</v>
       </c>
       <c r="J48" t="n">
-        <v>309.9133605957031</v>
+        <v>140.2308197021484</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>678.6736450195312</v>
+        <v>670.9410400390625</v>
       </c>
       <c r="H49" t="n">
-        <v>91.02864074707031</v>
+        <v>47.61882400512695</v>
       </c>
       <c r="I49" t="n">
-        <v>495.6805114746094</v>
+        <v>887.232177734375</v>
       </c>
       <c r="J49" t="n">
-        <v>354.0888977050781</v>
+        <v>147.6922760009766</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>250.7435455322266</v>
+        <v>326.2603759765625</v>
       </c>
       <c r="H50" t="n">
-        <v>77.90409088134766</v>
+        <v>70.60198974609375</v>
       </c>
       <c r="I50" t="n">
-        <v>173.7564392089844</v>
+        <v>188.2131652832031</v>
       </c>
       <c r="J50" t="n">
-        <v>398.5756225585938</v>
+        <v>201.0240936279297</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>268.564208984375</v>
+        <v>346.1170349121094</v>
       </c>
       <c r="H51" t="n">
-        <v>79.43194580078125</v>
+        <v>69.17103576660156</v>
       </c>
       <c r="I51" t="n">
-        <v>219.8557586669922</v>
+        <v>269.1157531738281</v>
       </c>
       <c r="J51" t="n">
-        <v>392.6947631835938</v>
+        <v>212.2080078125</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>280.6191101074219</v>
+        <v>366.6390075683594</v>
       </c>
       <c r="H52" t="n">
-        <v>77.41944885253906</v>
+        <v>72.07936096191406</v>
       </c>
       <c r="I52" t="n">
-        <v>216.5978851318359</v>
+        <v>327.4496765136719</v>
       </c>
       <c r="J52" t="n">
-        <v>361.6139221191406</v>
+        <v>217.2881011962891</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>305.6876831054688</v>
+        <v>384.1137084960938</v>
       </c>
       <c r="H53" t="n">
-        <v>82.20701599121094</v>
+        <v>77.05410766601562</v>
       </c>
       <c r="I53" t="n">
-        <v>272.6658935546875</v>
+        <v>471.439697265625</v>
       </c>
       <c r="J53" t="n">
-        <v>325.2649536132812</v>
+        <v>215.6136627197266</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>330.0340881347656</v>
+        <v>413.7695007324219</v>
       </c>
       <c r="H54" t="n">
-        <v>82.19243621826172</v>
+        <v>73.18986511230469</v>
       </c>
       <c r="I54" t="n">
-        <v>328.8349304199219</v>
+        <v>602.8390502929688</v>
       </c>
       <c r="J54" t="n">
-        <v>305.8551025390625</v>
+        <v>213.6810455322266</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>372.8807373046875</v>
+        <v>442.4845886230469</v>
       </c>
       <c r="H55" t="n">
-        <v>84.91951751708984</v>
+        <v>63.65024948120117</v>
       </c>
       <c r="I55" t="n">
-        <v>347.5472717285156</v>
+        <v>715.015869140625</v>
       </c>
       <c r="J55" t="n">
-        <v>288.9730834960938</v>
+        <v>190.4402770996094</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>446.7524108886719</v>
+        <v>516.9369506835938</v>
       </c>
       <c r="H56" t="n">
-        <v>89.00901794433594</v>
+        <v>64.98521423339844</v>
       </c>
       <c r="I56" t="n">
-        <v>405.7939147949219</v>
+        <v>807.2811889648438</v>
       </c>
       <c r="J56" t="n">
-        <v>280.4470520019531</v>
+        <v>170.9999389648438</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>555.6063232421875</v>
+        <v>590.6752319335938</v>
       </c>
       <c r="H57" t="n">
-        <v>94.32436370849609</v>
+        <v>58.02572250366211</v>
       </c>
       <c r="I57" t="n">
-        <v>423.3022766113281</v>
+        <v>869.2639770507812</v>
       </c>
       <c r="J57" t="n">
-        <v>308.4601135253906</v>
+        <v>167.1029815673828</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>658.7507934570312</v>
+        <v>661.9351806640625</v>
       </c>
       <c r="H58" t="n">
-        <v>97.15211486816406</v>
+        <v>39.92236328125</v>
       </c>
       <c r="I58" t="n">
-        <v>464.9146728515625</v>
+        <v>900.1744995117188</v>
       </c>
       <c r="J58" t="n">
-        <v>347.8997802734375</v>
+        <v>170.0271911621094</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>275.3648986816406</v>
+        <v>361.7103271484375</v>
       </c>
       <c r="H59" t="n">
-        <v>79.85842132568359</v>
+        <v>75.3258056640625</v>
       </c>
       <c r="I59" t="n">
-        <v>137.6890106201172</v>
+        <v>174.5010070800781</v>
       </c>
       <c r="J59" t="n">
-        <v>397.6470947265625</v>
+        <v>206.7117767333984</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>297.1394653320312</v>
+        <v>383.2720031738281</v>
       </c>
       <c r="H60" t="n">
-        <v>88.0799560546875</v>
+        <v>80.05035400390625</v>
       </c>
       <c r="I60" t="n">
-        <v>160.7247161865234</v>
+        <v>282.4839782714844</v>
       </c>
       <c r="J60" t="n">
-        <v>362.1513977050781</v>
+        <v>236.626708984375</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>305.9391174316406</v>
+        <v>408.0923461914062</v>
       </c>
       <c r="H61" t="n">
-        <v>83.01491546630859</v>
+        <v>83.84293365478516</v>
       </c>
       <c r="I61" t="n">
-        <v>211.0896911621094</v>
+        <v>369.4601135253906</v>
       </c>
       <c r="J61" t="n">
-        <v>351.1527404785156</v>
+        <v>235.9787445068359</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>330.8993530273438</v>
+        <v>434.1098327636719</v>
       </c>
       <c r="H62" t="n">
-        <v>82.80636596679688</v>
+        <v>76.82710266113281</v>
       </c>
       <c r="I62" t="n">
-        <v>262.43701171875</v>
+        <v>501.3077087402344</v>
       </c>
       <c r="J62" t="n">
-        <v>315.912109375</v>
+        <v>249.4154815673828</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>356.5561218261719</v>
+        <v>464.8382263183594</v>
       </c>
       <c r="H63" t="n">
-        <v>85.31100463867188</v>
+        <v>63.50297927856445</v>
       </c>
       <c r="I63" t="n">
-        <v>279.8565979003906</v>
+        <v>641.9418334960938</v>
       </c>
       <c r="J63" t="n">
-        <v>309.4012756347656</v>
+        <v>230.0745391845703</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>418.3258361816406</v>
+        <v>527.0664672851562</v>
       </c>
       <c r="H64" t="n">
-        <v>87.96041107177734</v>
+        <v>56.46442031860352</v>
       </c>
       <c r="I64" t="n">
-        <v>357.1797180175781</v>
+        <v>781.4352416992188</v>
       </c>
       <c r="J64" t="n">
-        <v>293.0389709472656</v>
+        <v>212.3937835693359</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>525.373779296875</v>
+        <v>599.1993408203125</v>
       </c>
       <c r="H65" t="n">
-        <v>92.69785308837891</v>
+        <v>54.75986862182617</v>
       </c>
       <c r="I65" t="n">
-        <v>412.0706787109375</v>
+        <v>887.4749145507812</v>
       </c>
       <c r="J65" t="n">
-        <v>312.7095031738281</v>
+        <v>187.9288787841797</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>295.3660583496094</v>
+        <v>397.5993957519531</v>
       </c>
       <c r="H66" t="n">
-        <v>90.83039093017578</v>
+        <v>81.33465576171875</v>
       </c>
       <c r="I66" t="n">
-        <v>101.0452346801758</v>
+        <v>181.6398162841797</v>
       </c>
       <c r="J66" t="n">
-        <v>382.9947509765625</v>
+        <v>242.9726409912109</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>309.1879577636719</v>
+        <v>416.0576782226562</v>
       </c>
       <c r="H67" t="n">
-        <v>90.62372589111328</v>
+        <v>84.23313903808594</v>
       </c>
       <c r="I67" t="n">
-        <v>102.0124282836914</v>
+        <v>256.7729797363281</v>
       </c>
       <c r="J67" t="n">
-        <v>352.4132385253906</v>
+        <v>256.5470581054688</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>331.8607788085938</v>
+        <v>453.4305725097656</v>
       </c>
       <c r="H68" t="n">
-        <v>88.84405517578125</v>
+        <v>76.45124053955078</v>
       </c>
       <c r="I68" t="n">
-        <v>198.1255798339844</v>
+        <v>451.6055297851562</v>
       </c>
       <c r="J68" t="n">
-        <v>335.9843444824219</v>
+        <v>286.8504943847656</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>354.86376953125</v>
+        <v>479.4100036621094</v>
       </c>
       <c r="H69" t="n">
-        <v>83.60010528564453</v>
+        <v>63.96116638183594</v>
       </c>
       <c r="I69" t="n">
-        <v>221.4814605712891</v>
+        <v>565.2463989257812</v>
       </c>
       <c r="J69" t="n">
-        <v>315.413818359375</v>
+        <v>274.9969177246094</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>399.1230773925781</v>
+        <v>531.6011962890625</v>
       </c>
       <c r="H70" t="n">
-        <v>85.61265563964844</v>
+        <v>51.53496932983398</v>
       </c>
       <c r="I70" t="n">
-        <v>308.3256530761719</v>
+        <v>730.4780883789062</v>
       </c>
       <c r="J70" t="n">
-        <v>312.8878784179688</v>
+        <v>263.3004760742188</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_1/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_1/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>372.0505065917969</v>
+        <v>356.5297546386719</v>
       </c>
       <c r="H2" t="n">
-        <v>84.50623321533203</v>
+        <v>92.71199798583984</v>
       </c>
       <c r="I2" t="n">
-        <v>686.6262817382812</v>
+        <v>648.3175659179688</v>
       </c>
       <c r="J2" t="n">
-        <v>144.6291351318359</v>
+        <v>147.6873474121094</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>458.3168334960938</v>
+        <v>446.7653503417969</v>
       </c>
       <c r="H3" t="n">
-        <v>111.6665115356445</v>
+        <v>118.5327224731445</v>
       </c>
       <c r="I3" t="n">
-        <v>764.5018920898438</v>
+        <v>703.5868530273438</v>
       </c>
       <c r="J3" t="n">
-        <v>150.6148986816406</v>
+        <v>165.0161743164062</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>524.6074829101562</v>
+        <v>528.980224609375</v>
       </c>
       <c r="H4" t="n">
-        <v>112.2994155883789</v>
+        <v>129.6705780029297</v>
       </c>
       <c r="I4" t="n">
-        <v>802.6625366210938</v>
+        <v>726.2828979492188</v>
       </c>
       <c r="J4" t="n">
-        <v>154.1757049560547</v>
+        <v>176.4137878417969</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>568.41162109375</v>
+        <v>595.021484375</v>
       </c>
       <c r="H5" t="n">
-        <v>112.1569213867188</v>
+        <v>122.596565246582</v>
       </c>
       <c r="I5" t="n">
-        <v>807.8167114257812</v>
+        <v>735.1318969726562</v>
       </c>
       <c r="J5" t="n">
-        <v>151.0797271728516</v>
+        <v>177.6337890625</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>624.4096069335938</v>
+        <v>644.5571899414062</v>
       </c>
       <c r="H6" t="n">
-        <v>92.23221588134766</v>
+        <v>98.19355773925781</v>
       </c>
       <c r="I6" t="n">
-        <v>807.6029663085938</v>
+        <v>725.3214721679688</v>
       </c>
       <c r="J6" t="n">
-        <v>145.3668975830078</v>
+        <v>184.7337646484375</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>289.7923889160156</v>
+        <v>277.9038696289062</v>
       </c>
       <c r="H7" t="n">
-        <v>46.02919387817383</v>
+        <v>49.50582504272461</v>
       </c>
       <c r="I7" t="n">
-        <v>608.9913940429688</v>
+        <v>597.9137573242188</v>
       </c>
       <c r="J7" t="n">
-        <v>113.2748718261719</v>
+        <v>95.40067291259766</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>292.9322509765625</v>
+        <v>281.849853515625</v>
       </c>
       <c r="H8" t="n">
-        <v>54.71164321899414</v>
+        <v>55.54700088500977</v>
       </c>
       <c r="I8" t="n">
-        <v>671.5325317382812</v>
+        <v>645.8265380859375</v>
       </c>
       <c r="J8" t="n">
-        <v>119.6930618286133</v>
+        <v>114.7798080444336</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>355.3677673339844</v>
+        <v>330.9296264648438</v>
       </c>
       <c r="H9" t="n">
-        <v>81.09097290039062</v>
+        <v>79.93787384033203</v>
       </c>
       <c r="I9" t="n">
-        <v>762.76953125</v>
+        <v>742.5072021484375</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6636962890625</v>
+        <v>135.0155029296875</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>431.60009765625</v>
+        <v>409.4664001464844</v>
       </c>
       <c r="H10" t="n">
-        <v>102.4798355102539</v>
+        <v>112.8683166503906</v>
       </c>
       <c r="I10" t="n">
-        <v>810.1446533203125</v>
+        <v>785.673095703125</v>
       </c>
       <c r="J10" t="n">
-        <v>119.4753952026367</v>
+        <v>140.981201171875</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>514.0035400390625</v>
+        <v>516.6431274414062</v>
       </c>
       <c r="H11" t="n">
-        <v>108.1442260742188</v>
+        <v>116.7217559814453</v>
       </c>
       <c r="I11" t="n">
-        <v>841.8558959960938</v>
+        <v>799.4214477539062</v>
       </c>
       <c r="J11" t="n">
-        <v>111.2467727661133</v>
+        <v>133.8016357421875</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>594.3661499023438</v>
+        <v>615.8703002929688</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2666397094727</v>
+        <v>98.79270172119141</v>
       </c>
       <c r="I12" t="n">
-        <v>845.733154296875</v>
+        <v>812.012939453125</v>
       </c>
       <c r="J12" t="n">
-        <v>114.1407699584961</v>
+        <v>138.4694366455078</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>669.5527954101562</v>
+        <v>676.5676879882812</v>
       </c>
       <c r="H13" t="n">
-        <v>75.29584503173828</v>
+        <v>78.67274475097656</v>
       </c>
       <c r="I13" t="n">
-        <v>852.4502563476562</v>
+        <v>823.4086303710938</v>
       </c>
       <c r="J13" t="n">
-        <v>113.993034362793</v>
+        <v>146.5485992431641</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>297.1855773925781</v>
+        <v>290.7360534667969</v>
       </c>
       <c r="H14" t="n">
-        <v>46.13908386230469</v>
+        <v>53.86219024658203</v>
       </c>
       <c r="I14" t="n">
-        <v>469.9833984375</v>
+        <v>497.8284912109375</v>
       </c>
       <c r="J14" t="n">
-        <v>93.55687713623047</v>
+        <v>98.65302276611328</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>283.684814453125</v>
+        <v>277.2308349609375</v>
       </c>
       <c r="H15" t="n">
-        <v>41.75360870361328</v>
+        <v>48.77565002441406</v>
       </c>
       <c r="I15" t="n">
-        <v>557.4525146484375</v>
+        <v>567.862060546875</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1792831420898</v>
+        <v>87.43032073974609</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>285.6602478027344</v>
+        <v>281.0762634277344</v>
       </c>
       <c r="H16" t="n">
-        <v>46.18544387817383</v>
+        <v>51.95672225952148</v>
       </c>
       <c r="I16" t="n">
-        <v>708.5506591796875</v>
+        <v>689.2778930664062</v>
       </c>
       <c r="J16" t="n">
-        <v>123.0022964477539</v>
+        <v>107.4026565551758</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>282.0791015625</v>
+        <v>274.9466552734375</v>
       </c>
       <c r="H17" t="n">
-        <v>46.95650482177734</v>
+        <v>56.25371170043945</v>
       </c>
       <c r="I17" t="n">
-        <v>717.5040893554688</v>
+        <v>684.6447143554688</v>
       </c>
       <c r="J17" t="n">
-        <v>124.1550979614258</v>
+        <v>114.5380172729492</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>330.0260314941406</v>
+        <v>323.9622497558594</v>
       </c>
       <c r="H18" t="n">
-        <v>61.70012283325195</v>
+        <v>76.43226623535156</v>
       </c>
       <c r="I18" t="n">
-        <v>787.9488525390625</v>
+        <v>755.2354736328125</v>
       </c>
       <c r="J18" t="n">
-        <v>114.4727325439453</v>
+        <v>132.0301666259766</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>438.1603698730469</v>
+        <v>442.9772338867188</v>
       </c>
       <c r="H19" t="n">
-        <v>89.77419281005859</v>
+        <v>112.1911468505859</v>
       </c>
       <c r="I19" t="n">
-        <v>837.0713500976562</v>
+        <v>803.6318969726562</v>
       </c>
       <c r="J19" t="n">
-        <v>103.6898651123047</v>
+        <v>132.866455078125</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>546.7089233398438</v>
+        <v>564.9329833984375</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52639770507812</v>
+        <v>99.36152648925781</v>
       </c>
       <c r="I20" t="n">
-        <v>850.1240844726562</v>
+        <v>837.8162841796875</v>
       </c>
       <c r="J20" t="n">
-        <v>98.77002716064453</v>
+        <v>135.42333984375</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>653.9822998046875</v>
+        <v>667.1372680664062</v>
       </c>
       <c r="H21" t="n">
-        <v>74.24929809570312</v>
+        <v>77.17992401123047</v>
       </c>
       <c r="I21" t="n">
-        <v>864.1328125</v>
+        <v>858.8284301757812</v>
       </c>
       <c r="J21" t="n">
-        <v>104.3350524902344</v>
+        <v>142.4226837158203</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>711.88037109375</v>
+        <v>711.662109375</v>
       </c>
       <c r="H22" t="n">
-        <v>56.38149261474609</v>
+        <v>49.96797180175781</v>
       </c>
       <c r="I22" t="n">
-        <v>862.3510131835938</v>
+        <v>859.8314819335938</v>
       </c>
       <c r="J22" t="n">
-        <v>117.6120071411133</v>
+        <v>156.2483673095703</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>302.1733703613281</v>
+        <v>303.2464904785156</v>
       </c>
       <c r="H23" t="n">
-        <v>45.12055206298828</v>
+        <v>53.22898101806641</v>
       </c>
       <c r="I23" t="n">
-        <v>384.5964050292969</v>
+        <v>405.1177673339844</v>
       </c>
       <c r="J23" t="n">
-        <v>124.8016510009766</v>
+        <v>112.1464920043945</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>303.7595520019531</v>
+        <v>293.8126525878906</v>
       </c>
       <c r="H24" t="n">
-        <v>41.34814071655273</v>
+        <v>45.59553146362305</v>
       </c>
       <c r="I24" t="n">
-        <v>480.2479248046875</v>
+        <v>498.1239624023438</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2264633178711</v>
+        <v>91.10938262939453</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>282.0699768066406</v>
+        <v>275.5772399902344</v>
       </c>
       <c r="H25" t="n">
-        <v>38.58568954467773</v>
+        <v>41.56798934936523</v>
       </c>
       <c r="I25" t="n">
-        <v>583.0271606445312</v>
+        <v>581.6702270507812</v>
       </c>
       <c r="J25" t="n">
-        <v>112.7452239990234</v>
+        <v>91.96440887451172</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>269.7120971679688</v>
+        <v>269.8230590820312</v>
       </c>
       <c r="H26" t="n">
-        <v>37.55313110351562</v>
+        <v>48.69890213012695</v>
       </c>
       <c r="I26" t="n">
-        <v>656.3460083007812</v>
+        <v>639.7777709960938</v>
       </c>
       <c r="J26" t="n">
-        <v>134.22900390625</v>
+        <v>100.7304840087891</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>286.3382873535156</v>
+        <v>295.1537170410156</v>
       </c>
       <c r="H27" t="n">
-        <v>44.12655258178711</v>
+        <v>67.46968841552734</v>
       </c>
       <c r="I27" t="n">
-        <v>751.4697265625</v>
+        <v>711.5210571289062</v>
       </c>
       <c r="J27" t="n">
-        <v>142.2090911865234</v>
+        <v>121.4155197143555</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>357.3862609863281</v>
+        <v>397.3056640625</v>
       </c>
       <c r="H28" t="n">
-        <v>69.22629547119141</v>
+        <v>99.51777648925781</v>
       </c>
       <c r="I28" t="n">
-        <v>819.4053344726562</v>
+        <v>794.3868408203125</v>
       </c>
       <c r="J28" t="n">
-        <v>121.6062393188477</v>
+        <v>138.4485321044922</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>484.2649536132812</v>
+        <v>533.5128784179688</v>
       </c>
       <c r="H29" t="n">
-        <v>79.88275909423828</v>
+        <v>100.2413940429688</v>
       </c>
       <c r="I29" t="n">
-        <v>845.2166137695312</v>
+        <v>835.6844482421875</v>
       </c>
       <c r="J29" t="n">
-        <v>109.766242980957</v>
+        <v>139.5074462890625</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>631.8961791992188</v>
+        <v>656.8759155273438</v>
       </c>
       <c r="H30" t="n">
-        <v>69.17945098876953</v>
+        <v>74.49372100830078</v>
       </c>
       <c r="I30" t="n">
-        <v>859.0203247070312</v>
+        <v>880.2879028320312</v>
       </c>
       <c r="J30" t="n">
-        <v>106.473274230957</v>
+        <v>139.3558349609375</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>697.6765747070312</v>
+        <v>710.162841796875</v>
       </c>
       <c r="H31" t="n">
-        <v>55.02117538452148</v>
+        <v>44.56056594848633</v>
       </c>
       <c r="I31" t="n">
-        <v>863.4293823242188</v>
+        <v>885.9713745117188</v>
       </c>
       <c r="J31" t="n">
-        <v>119.1879577636719</v>
+        <v>156.6150665283203</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>308.8333435058594</v>
+        <v>311.7174072265625</v>
       </c>
       <c r="H32" t="n">
-        <v>57.44134521484375</v>
+        <v>60.33322906494141</v>
       </c>
       <c r="I32" t="n">
-        <v>293.7796325683594</v>
+        <v>294.3407592773438</v>
       </c>
       <c r="J32" t="n">
-        <v>162.6506958007812</v>
+        <v>138.9648895263672</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>310.9821472167969</v>
+        <v>308.39794921875</v>
       </c>
       <c r="H33" t="n">
-        <v>52.91146087646484</v>
+        <v>47.03308868408203</v>
       </c>
       <c r="I33" t="n">
-        <v>406.6751403808594</v>
+        <v>417.1932983398438</v>
       </c>
       <c r="J33" t="n">
-        <v>165.7509307861328</v>
+        <v>142.5066223144531</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>304.1545715332031</v>
+        <v>297.7283935546875</v>
       </c>
       <c r="H34" t="n">
-        <v>45.86299896240234</v>
+        <v>43.4311637878418</v>
       </c>
       <c r="I34" t="n">
-        <v>527.5512084960938</v>
+        <v>519.8993530273438</v>
       </c>
       <c r="J34" t="n">
-        <v>140.104736328125</v>
+        <v>114.0116806030273</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>301.1849670410156</v>
+        <v>298.6245422363281</v>
       </c>
       <c r="H35" t="n">
-        <v>44.92481231689453</v>
+        <v>49.73827362060547</v>
       </c>
       <c r="I35" t="n">
-        <v>630.9873046875</v>
+        <v>596.3715209960938</v>
       </c>
       <c r="J35" t="n">
-        <v>153.3179321289062</v>
+        <v>118.0242691040039</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>304.0437316894531</v>
+        <v>317.8787536621094</v>
       </c>
       <c r="H36" t="n">
-        <v>44.71953582763672</v>
+        <v>73.76227569580078</v>
       </c>
       <c r="I36" t="n">
-        <v>724.650146484375</v>
+        <v>698.7719116210938</v>
       </c>
       <c r="J36" t="n">
-        <v>155.8798980712891</v>
+        <v>132.9533996582031</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>355.0439147949219</v>
+        <v>389.6429748535156</v>
       </c>
       <c r="H37" t="n">
-        <v>57.29127502441406</v>
+        <v>93.46453857421875</v>
       </c>
       <c r="I37" t="n">
-        <v>794.4746704101562</v>
+        <v>768.3118896484375</v>
       </c>
       <c r="J37" t="n">
-        <v>146.8387451171875</v>
+        <v>154.8854064941406</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>470.5246276855469</v>
+        <v>532.8869018554688</v>
       </c>
       <c r="H38" t="n">
-        <v>72.55487060546875</v>
+        <v>90.92063140869141</v>
       </c>
       <c r="I38" t="n">
-        <v>846.4722900390625</v>
+        <v>832.4982299804688</v>
       </c>
       <c r="J38" t="n">
-        <v>119.1619415283203</v>
+        <v>156.8729095458984</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>614.3091430664062</v>
+        <v>641.1842041015625</v>
       </c>
       <c r="H39" t="n">
-        <v>64.99971008300781</v>
+        <v>68.31389617919922</v>
       </c>
       <c r="I39" t="n">
-        <v>870.8541870117188</v>
+        <v>865.0286254882812</v>
       </c>
       <c r="J39" t="n">
-        <v>118.9737167358398</v>
+        <v>148.2071533203125</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>683.7410278320312</v>
+        <v>695.3585205078125</v>
       </c>
       <c r="H40" t="n">
-        <v>50.34933471679688</v>
+        <v>40.05734252929688</v>
       </c>
       <c r="I40" t="n">
-        <v>880.4163818359375</v>
+        <v>891.0818481445312</v>
       </c>
       <c r="J40" t="n">
-        <v>128.6411285400391</v>
+        <v>152.749267578125</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>314.649169921875</v>
+        <v>320.52197265625</v>
       </c>
       <c r="H41" t="n">
-        <v>63.72856521606445</v>
+        <v>65.47426605224609</v>
       </c>
       <c r="I41" t="n">
-        <v>244.5737762451172</v>
+        <v>208.0415954589844</v>
       </c>
       <c r="J41" t="n">
-        <v>194.5211181640625</v>
+        <v>172.580810546875</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>328.9491577148438</v>
+        <v>325.050537109375</v>
       </c>
       <c r="H42" t="n">
-        <v>61.75793075561523</v>
+        <v>59.23335266113281</v>
       </c>
       <c r="I42" t="n">
-        <v>329.5130310058594</v>
+        <v>305.9889221191406</v>
       </c>
       <c r="J42" t="n">
-        <v>205.545654296875</v>
+        <v>178.4573059082031</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>336.8986206054688</v>
+        <v>328.9466552734375</v>
       </c>
       <c r="H43" t="n">
-        <v>59.5814323425293</v>
+        <v>55.74179840087891</v>
       </c>
       <c r="I43" t="n">
-        <v>410.3179016113281</v>
+        <v>394.3928527832031</v>
       </c>
       <c r="J43" t="n">
-        <v>198.1817169189453</v>
+        <v>169.6298217773438</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9272155761719</v>
+        <v>330.47119140625</v>
       </c>
       <c r="H44" t="n">
-        <v>67.23154449462891</v>
+        <v>52.3207893371582</v>
       </c>
       <c r="I44" t="n">
-        <v>575.7806396484375</v>
+        <v>541.9374389648438</v>
       </c>
       <c r="J44" t="n">
-        <v>179.2324981689453</v>
+        <v>147.4062805175781</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>350.4311828613281</v>
+        <v>352.3138122558594</v>
       </c>
       <c r="H45" t="n">
-        <v>64.23813629150391</v>
+        <v>63.96385192871094</v>
       </c>
       <c r="I45" t="n">
-        <v>653.8248901367188</v>
+        <v>613.9381103515625</v>
       </c>
       <c r="J45" t="n">
-        <v>175.6207275390625</v>
+        <v>134.3304138183594</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>392.2367553710938</v>
+        <v>424.1568603515625</v>
       </c>
       <c r="H46" t="n">
-        <v>61.45152282714844</v>
+        <v>89.66915130615234</v>
       </c>
       <c r="I46" t="n">
-        <v>760.126220703125</v>
+        <v>717.3358154296875</v>
       </c>
       <c r="J46" t="n">
-        <v>162.0706939697266</v>
+        <v>149.3433685302734</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>492.9323425292969</v>
+        <v>536.2103881835938</v>
       </c>
       <c r="H47" t="n">
-        <v>72.65597534179688</v>
+        <v>75.45423889160156</v>
       </c>
       <c r="I47" t="n">
-        <v>833.239990234375</v>
+        <v>804.33935546875</v>
       </c>
       <c r="J47" t="n">
-        <v>148.8849334716797</v>
+        <v>172.4556427001953</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>606.3031616210938</v>
+        <v>631.643310546875</v>
       </c>
       <c r="H48" t="n">
-        <v>62.88241577148438</v>
+        <v>49.6065673828125</v>
       </c>
       <c r="I48" t="n">
-        <v>879.4634399414062</v>
+        <v>850.6930541992188</v>
       </c>
       <c r="J48" t="n">
-        <v>140.2308197021484</v>
+        <v>164.5530395507812</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>670.9410400390625</v>
+        <v>682.4327392578125</v>
       </c>
       <c r="H49" t="n">
-        <v>47.61882400512695</v>
+        <v>36.16304016113281</v>
       </c>
       <c r="I49" t="n">
-        <v>887.232177734375</v>
+        <v>869.4764404296875</v>
       </c>
       <c r="J49" t="n">
-        <v>147.6922760009766</v>
+        <v>159.3167724609375</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>326.2603759765625</v>
+        <v>332.0055541992188</v>
       </c>
       <c r="H50" t="n">
-        <v>70.60198974609375</v>
+        <v>66.16974639892578</v>
       </c>
       <c r="I50" t="n">
-        <v>188.2131652832031</v>
+        <v>131.9765167236328</v>
       </c>
       <c r="J50" t="n">
-        <v>201.0240936279297</v>
+        <v>186.5669860839844</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>346.1170349121094</v>
+        <v>346.6612854003906</v>
       </c>
       <c r="H51" t="n">
-        <v>69.17103576660156</v>
+        <v>68.21459197998047</v>
       </c>
       <c r="I51" t="n">
-        <v>269.1157531738281</v>
+        <v>217.1653747558594</v>
       </c>
       <c r="J51" t="n">
-        <v>212.2080078125</v>
+        <v>197.5186920166016</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>366.6390075683594</v>
+        <v>353.951416015625</v>
       </c>
       <c r="H52" t="n">
-        <v>72.07936096191406</v>
+        <v>68.51043701171875</v>
       </c>
       <c r="I52" t="n">
-        <v>327.4496765136719</v>
+        <v>287.2046203613281</v>
       </c>
       <c r="J52" t="n">
-        <v>217.2881011962891</v>
+        <v>197.4259185791016</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>384.1137084960938</v>
+        <v>370.7569274902344</v>
       </c>
       <c r="H53" t="n">
-        <v>77.05410766601562</v>
+        <v>66.20896148681641</v>
       </c>
       <c r="I53" t="n">
-        <v>471.439697265625</v>
+        <v>424.5171203613281</v>
       </c>
       <c r="J53" t="n">
-        <v>215.6136627197266</v>
+        <v>192.6490020751953</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>413.7695007324219</v>
+        <v>417.4021301269531</v>
       </c>
       <c r="H54" t="n">
-        <v>73.18986511230469</v>
+        <v>75.61838531494141</v>
       </c>
       <c r="I54" t="n">
-        <v>602.8390502929688</v>
+        <v>544.963623046875</v>
       </c>
       <c r="J54" t="n">
-        <v>213.6810455322266</v>
+        <v>168.9019470214844</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>442.4845886230469</v>
+        <v>470.7373046875</v>
       </c>
       <c r="H55" t="n">
-        <v>63.65024948120117</v>
+        <v>82.61295318603516</v>
       </c>
       <c r="I55" t="n">
-        <v>715.015869140625</v>
+        <v>646.7669067382812</v>
       </c>
       <c r="J55" t="n">
-        <v>190.4402770996094</v>
+        <v>159.9123992919922</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>516.9369506835938</v>
+        <v>542.7619018554688</v>
       </c>
       <c r="H56" t="n">
-        <v>64.98521423339844</v>
+        <v>68.99458312988281</v>
       </c>
       <c r="I56" t="n">
-        <v>807.2811889648438</v>
+        <v>741.5568237304688</v>
       </c>
       <c r="J56" t="n">
-        <v>170.9999389648438</v>
+        <v>168.9600372314453</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>590.6752319335938</v>
+        <v>616.2493286132812</v>
       </c>
       <c r="H57" t="n">
-        <v>58.02572250366211</v>
+        <v>40.44295883178711</v>
       </c>
       <c r="I57" t="n">
-        <v>869.2639770507812</v>
+        <v>818.0820922851562</v>
       </c>
       <c r="J57" t="n">
-        <v>167.1029815673828</v>
+        <v>178.1853485107422</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>661.9351806640625</v>
+        <v>671.6834106445312</v>
       </c>
       <c r="H58" t="n">
-        <v>39.92236328125</v>
+        <v>35.45367050170898</v>
       </c>
       <c r="I58" t="n">
-        <v>900.1744995117188</v>
+        <v>855.7882080078125</v>
       </c>
       <c r="J58" t="n">
-        <v>170.0271911621094</v>
+        <v>181.0434722900391</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>361.7103271484375</v>
+        <v>362.3847961425781</v>
       </c>
       <c r="H59" t="n">
-        <v>75.3258056640625</v>
+        <v>67.91258239746094</v>
       </c>
       <c r="I59" t="n">
-        <v>174.5010070800781</v>
+        <v>102.0827331542969</v>
       </c>
       <c r="J59" t="n">
-        <v>206.7117767333984</v>
+        <v>203.6923828125</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>383.2720031738281</v>
+        <v>380.7837219238281</v>
       </c>
       <c r="H60" t="n">
-        <v>80.05035400390625</v>
+        <v>73.40054321289062</v>
       </c>
       <c r="I60" t="n">
-        <v>282.4839782714844</v>
+        <v>208.8958587646484</v>
       </c>
       <c r="J60" t="n">
-        <v>236.626708984375</v>
+        <v>220.2898712158203</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>408.0923461914062</v>
+        <v>407.1458740234375</v>
       </c>
       <c r="H61" t="n">
-        <v>83.84293365478516</v>
+        <v>71.29557800292969</v>
       </c>
       <c r="I61" t="n">
-        <v>369.4601135253906</v>
+        <v>310.3737487792969</v>
       </c>
       <c r="J61" t="n">
-        <v>235.9787445068359</v>
+        <v>212.0763549804688</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>434.1098327636719</v>
+        <v>445.6213989257812</v>
       </c>
       <c r="H62" t="n">
-        <v>76.82710266113281</v>
+        <v>73.73895263671875</v>
       </c>
       <c r="I62" t="n">
-        <v>501.3077087402344</v>
+        <v>425.8444519042969</v>
       </c>
       <c r="J62" t="n">
-        <v>249.4154815673828</v>
+        <v>207.8322143554688</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>464.8382263183594</v>
+        <v>494.2564697265625</v>
       </c>
       <c r="H63" t="n">
-        <v>63.50297927856445</v>
+        <v>74.77204895019531</v>
       </c>
       <c r="I63" t="n">
-        <v>641.9418334960938</v>
+        <v>549.2835083007812</v>
       </c>
       <c r="J63" t="n">
-        <v>230.0745391845703</v>
+        <v>202.4856872558594</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>527.0664672851562</v>
+        <v>551.7855834960938</v>
       </c>
       <c r="H64" t="n">
-        <v>56.46442031860352</v>
+        <v>61.12907409667969</v>
       </c>
       <c r="I64" t="n">
-        <v>781.4352416992188</v>
+        <v>684.1406860351562</v>
       </c>
       <c r="J64" t="n">
-        <v>212.3937835693359</v>
+        <v>188.1317443847656</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>599.1993408203125</v>
+        <v>614.3297119140625</v>
       </c>
       <c r="H65" t="n">
-        <v>54.75986862182617</v>
+        <v>36.36929321289062</v>
       </c>
       <c r="I65" t="n">
-        <v>887.4749145507812</v>
+        <v>790.287109375</v>
       </c>
       <c r="J65" t="n">
-        <v>187.9288787841797</v>
+        <v>203.9337158203125</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>397.5993957519531</v>
+        <v>413.1445617675781</v>
       </c>
       <c r="H66" t="n">
-        <v>81.33465576171875</v>
+        <v>75.16852569580078</v>
       </c>
       <c r="I66" t="n">
-        <v>181.6398162841797</v>
+        <v>87.4169921875</v>
       </c>
       <c r="J66" t="n">
-        <v>242.9726409912109</v>
+        <v>204.9302673339844</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>416.0576782226562</v>
+        <v>436.611572265625</v>
       </c>
       <c r="H67" t="n">
-        <v>84.23313903808594</v>
+        <v>74.37754821777344</v>
       </c>
       <c r="I67" t="n">
-        <v>256.7729797363281</v>
+        <v>178.7190551757812</v>
       </c>
       <c r="J67" t="n">
-        <v>256.5470581054688</v>
+        <v>220.8565826416016</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>453.4305725097656</v>
+        <v>483.9815673828125</v>
       </c>
       <c r="H68" t="n">
-        <v>76.45124053955078</v>
+        <v>67.92218780517578</v>
       </c>
       <c r="I68" t="n">
-        <v>451.6055297851562</v>
+        <v>340.1663818359375</v>
       </c>
       <c r="J68" t="n">
-        <v>286.8504943847656</v>
+        <v>221.3976593017578</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>479.4100036621094</v>
+        <v>510.5236511230469</v>
       </c>
       <c r="H69" t="n">
-        <v>63.96116638183594</v>
+        <v>66.18218231201172</v>
       </c>
       <c r="I69" t="n">
-        <v>565.2463989257812</v>
+        <v>447.4481811523438</v>
       </c>
       <c r="J69" t="n">
-        <v>274.9969177246094</v>
+        <v>226.8451385498047</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>531.6011962890625</v>
+        <v>554.3289184570312</v>
       </c>
       <c r="H70" t="n">
-        <v>51.53496932983398</v>
+        <v>56.62505722045898</v>
       </c>
       <c r="I70" t="n">
-        <v>730.4780883789062</v>
+        <v>621.9646606445312</v>
       </c>
       <c r="J70" t="n">
-        <v>263.3004760742188</v>
+        <v>207.2642822265625</v>
       </c>
     </row>
   </sheetData>
